--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H2">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1839.780639890456</v>
+        <v>2452.551397691237</v>
       </c>
       <c r="R2">
-        <v>16558.02575901411</v>
+        <v>22072.96257922114</v>
       </c>
       <c r="S2">
-        <v>0.01061198524117472</v>
+        <v>0.0125616980828065</v>
       </c>
       <c r="T2">
-        <v>0.01061198524117472</v>
+        <v>0.0125616980828065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H3">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>2022.773482039171</v>
+        <v>2841.371522514332</v>
       </c>
       <c r="R3">
-        <v>18204.96133835254</v>
+        <v>25572.34370262899</v>
       </c>
       <c r="S3">
-        <v>0.01166750093582753</v>
+        <v>0.01455319192923302</v>
       </c>
       <c r="T3">
-        <v>0.01166750093582753</v>
+        <v>0.01455319192923302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H4">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1121.187365044306</v>
+        <v>2156.721850855631</v>
       </c>
       <c r="R4">
-        <v>10090.68628539875</v>
+        <v>19410.49665770067</v>
       </c>
       <c r="S4">
-        <v>0.006467088256320696</v>
+        <v>0.01104649173287206</v>
       </c>
       <c r="T4">
-        <v>0.006467088256320695</v>
+        <v>0.01104649173287206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H5">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>815.945160129348</v>
+        <v>1106.943046750481</v>
       </c>
       <c r="R5">
-        <v>7343.506441164132</v>
+        <v>9962.487420754325</v>
       </c>
       <c r="S5">
-        <v>0.00470642956511171</v>
+        <v>0.005669640343208038</v>
       </c>
       <c r="T5">
-        <v>0.00470642956511171</v>
+        <v>0.005669640343208038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J6">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>51028.85105119913</v>
+        <v>48426.94707998954</v>
       </c>
       <c r="R6">
-        <v>459259.6594607922</v>
+        <v>435842.5237199059</v>
       </c>
       <c r="S6">
-        <v>0.2943380327459425</v>
+        <v>0.2480374881698855</v>
       </c>
       <c r="T6">
-        <v>0.2943380327459426</v>
+        <v>0.2480374881698856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J7">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>56104.40967105629</v>
@@ -883,10 +883,10 @@
         <v>504939.6870395066</v>
       </c>
       <c r="S7">
-        <v>0.3236142149150561</v>
+        <v>0.2873606058023272</v>
       </c>
       <c r="T7">
-        <v>0.3236142149150561</v>
+        <v>0.2873606058023273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J8">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>31097.67643534876</v>
+        <v>42585.63349007194</v>
       </c>
       <c r="R8">
-        <v>279879.0879181388</v>
+        <v>383270.7014106475</v>
       </c>
       <c r="S8">
-        <v>0.1793736036848377</v>
+        <v>0.2181189234488304</v>
       </c>
       <c r="T8">
-        <v>0.1793736036848377</v>
+        <v>0.2181189234488305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J9">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>22631.36329376009</v>
+        <v>21857.18611076244</v>
       </c>
       <c r="R9">
-        <v>203682.2696438408</v>
+        <v>196714.674996862</v>
       </c>
       <c r="S9">
-        <v>0.1305393089011661</v>
+        <v>0.1119500994440221</v>
       </c>
       <c r="T9">
-        <v>0.1305393089011661</v>
+        <v>0.1119500994440221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H10">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>2114.117393327243</v>
+        <v>5027.87791641116</v>
       </c>
       <c r="R10">
-        <v>19027.05653994519</v>
+        <v>45250.90124770044</v>
       </c>
       <c r="S10">
-        <v>0.01219437909588791</v>
+        <v>0.02575223681045911</v>
       </c>
       <c r="T10">
-        <v>0.01219437909588792</v>
+        <v>0.02575223681045911</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H11">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>2324.39700060913</v>
+        <v>5824.982564613271</v>
       </c>
       <c r="R11">
-        <v>20919.57300548217</v>
+        <v>52424.84308151944</v>
       </c>
       <c r="S11">
-        <v>0.01340728678749634</v>
+        <v>0.02983491900849278</v>
       </c>
       <c r="T11">
-        <v>0.01340728678749634</v>
+        <v>0.02983491900849278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H12">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1288.371916860719</v>
+        <v>4421.409547610873</v>
       </c>
       <c r="R12">
-        <v>11595.34725174647</v>
+        <v>39792.68592849786</v>
       </c>
       <c r="S12">
-        <v>0.007431420610928921</v>
+        <v>0.02264597263478761</v>
       </c>
       <c r="T12">
-        <v>0.007431420610928921</v>
+        <v>0.02264597263478762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H13">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>937.6138750614023</v>
+        <v>2269.299842083189</v>
       </c>
       <c r="R13">
-        <v>8438.524875552621</v>
+        <v>20423.6985787487</v>
       </c>
       <c r="S13">
-        <v>0.005408223343770307</v>
+        <v>0.01162310380220552</v>
       </c>
       <c r="T13">
-        <v>0.005408223343770308</v>
+        <v>0.01162310380220552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H14">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>13.22795778076178</v>
+        <v>47.31689963347867</v>
       </c>
       <c r="R14">
-        <v>119.051620026856</v>
+        <v>425.852096701308</v>
       </c>
       <c r="S14">
-        <v>7.629979884378195E-05</v>
+        <v>0.0002423519474330894</v>
       </c>
       <c r="T14">
-        <v>7.629979884378195E-05</v>
+        <v>0.0002423519474330894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H15">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>14.54366984862489</v>
+        <v>54.81837863981067</v>
       </c>
       <c r="R15">
-        <v>130.893028637624</v>
+        <v>493.365407758296</v>
       </c>
       <c r="S15">
-        <v>8.388891938514723E-05</v>
+        <v>0.0002807736965310943</v>
       </c>
       <c r="T15">
-        <v>8.388891938514723E-05</v>
+        <v>0.0002807736965310943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H16">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>8.061297530564666</v>
+        <v>41.60948123261867</v>
       </c>
       <c r="R16">
-        <v>72.551677775082</v>
+        <v>374.485331093568</v>
       </c>
       <c r="S16">
-        <v>4.649813600830369E-05</v>
+        <v>0.0002131191791203237</v>
       </c>
       <c r="T16">
-        <v>4.649813600830369E-05</v>
+        <v>0.0002131191791203237</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H17">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>5.866616864851111</v>
+        <v>21.356173449566</v>
       </c>
       <c r="R17">
-        <v>52.79955178366001</v>
+        <v>192.205561046094</v>
       </c>
       <c r="S17">
-        <v>3.383906224229729E-05</v>
+        <v>0.0001093839677855632</v>
       </c>
       <c r="T17">
-        <v>3.383906224229729E-05</v>
+        <v>0.0001093839677855632</v>
       </c>
     </row>
   </sheetData>
